--- a/RA Bart Management.xlsx
+++ b/RA Bart Management.xlsx
@@ -447,13 +447,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -510,6 +523,456 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>12181</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wertheim, Edward</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Managing Organizational Change and Disruption</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3315</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>16040</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Larson, Barbara</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Healthcare Management, Innovation, and Design</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3340</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>12573</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hoff, Timothy</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Leading with Character</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3380</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>18302</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>McAllister, Charn</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Managing Human Capital</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14056</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ladge, Jamie</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>14949</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Masiello, Diletta</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Management Consulting in Organizations</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4550</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>17880</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Management Consulting in Organizations</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4550</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>17881</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>22</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Negotiations</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6214</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>10808</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Wertheim, Edward</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Innovation for Next-Generation Products and Systems</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6280</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10938</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Meyer, Marc</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -523,13 +986,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -586,6 +1062,1041 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>35770</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wertheim, Edward</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>35771</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Healthcare Management, Innovation, and Design</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3340</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>37497</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hoff, Timothy</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Law and the Legal Process</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3360</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>34069</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Montgomery, Susan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Managing Human Capital</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>33658</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ladge, Jamie</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>33785</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dias, Martin</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Management Practices of Great Organizations</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4310</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>33659</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Workforce Analytics</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4410</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>33660</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Management Consulting in Organizations</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4550</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>37498</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Management Consulting in Organizations</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4550</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>37499</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>31743</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>31744</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>31745</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>31746</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>33594</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>20</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>33601</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>33602</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>31685</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>31686</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>39263</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>32171</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>33076</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Innovation for Next-Generation Products and Systems</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6280</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>33821</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Meyer, Marc</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>23</v>
+      </c>
+      <c r="K24" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -599,13 +2110,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -662,6 +2186,501 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>11893</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wertheim, Edward</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>18246</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>19519</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Power and Influence</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3305</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>18797</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dencker, John</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Healthcare Management, Innovation, and Design</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3340</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>12241</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hoff, Timothy</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Managing Human Capital</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>13451</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ladge, Jamie</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>14132</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dias, Martin</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Workforce Analytics</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4410</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>18247</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>13</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Management Consulting in Organizations</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4550</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>15866</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Management Consulting in Organizations</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4550</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>15867</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Negotiations</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6214</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10742</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Wertheim, Edward</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -675,13 +2694,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -738,6 +2770,816 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>34367</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wertheim, Edward</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>34368</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Healthcare Management, Innovation, and Design</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3340</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>35260</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hoff, Timothy</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Managing a Diverse Workforce</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3350</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>37104</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Baskerville, Marla</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Social Networks and Organizations</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3435</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>37105</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aksehirli, Zeynep</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>33142</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dias, Martin</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Management Practices of Great Organizations</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4310</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>37106</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>24</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Management Consulting in Organizations</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4550</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>35261</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Management Consulting in Organizations</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4550</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>35262</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>31480</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>31481</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>31482</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>31483</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>31428</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>31429</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>31852</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>32573</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Innovation for Next-Generation Products and Systems</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6280</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>33172</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Meyer, Marc</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>24</v>
+      </c>
+      <c r="K19" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -758,6 +3600,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="73" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1637,13 +4492,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="79" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1700,6 +4568,951 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fundamentals of Business</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2110</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>37063</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Crittenden, William</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>33309</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wertheim, Edward</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Developing Leaders for Global Sustainability</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3330</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>36868</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Managing Healthcare Organizations: Critical Challenges and New Approaches</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3340</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>33310</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Social Networks and Organizations</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3435</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>35393</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dejordy, Richard</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Skills for Managerial Success</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>33312</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bannister, Brendan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Skills for Managerial Success</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>33313</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bannister, Brendan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Leadership Seminar</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4603</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>35394</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Steere, Robert</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>32834</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>32835</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>32836</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>32837</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>32734</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>32735</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>33766</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>36371</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Business Law, Corporate Governance, and Intellectual Property Strategies</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6283</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>38176</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Shaughnessy, Dennis</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Business Law, Corporate Governance, and Intellectual Property Strategies</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6283</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>32736</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Shaughnessy, Dennis</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Business Law, Corporate Governance, and Intellectual Property Strategies</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6283</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>31921</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Shaughnessy, Dennis</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Developing an Executive Understanding of Business Law and Intellectual Property</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6293</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>31511</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Montgomery, Susan</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>22</v>
+      </c>
+      <c r="K21" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Leadership for High Performance and Organizational Change</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6295</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>37327</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sullivan, Paul</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>22</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1720,6 +5533,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="73" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2284,13 +6110,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="73" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2347,6 +6186,1176 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>33056</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wertheim, Edward</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Managing Healthcare Organizations: Critical Challenges and New Approaches</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3340</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>33057</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Law and the Legal Process</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3360</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>38348</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Montgomery, Susan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>31</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Managing Human Capital</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>37210</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ladge, Jamie</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Managing Human Capital</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>37568</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ladge, Jamie</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>37567</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sands, David</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Management Practices of Great Organizations</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4310</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>37211</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Human Resources and Workforce Analytics</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4410</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>37212</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>29</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Skills for Managerial Success</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>33058</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bannister, Brendan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Skills for Managerial Success</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>33059</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bannister, Brendan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>32665</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>32666</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>32667</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>32668</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>37097</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>37104</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>37106</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>37107</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>32569</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>32570</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>33464</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>35342</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Competitive Strategy for Dynamic Markets, Development, and Execution</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6281</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>37117</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Friar, John</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>No campus, no room needed</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>18</v>
+      </c>
+      <c r="K24" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Business Law, Corporate Governance, and Intellectual Property Strategies</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6283</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>36979</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Shaughnessy, Dennis</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Business Law, Corporate Governance, and Intellectual Property Strategies</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6283</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>32571</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Shaughnessy, Dennis</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Business Law, Corporate Governance, and Intellectual Property Strategies</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6283</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>31810</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Shaughnessy, Dennis</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>20</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2367,6 +7376,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="73" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2931,13 +7953,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="73" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2994,6 +8029,1176 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Managing Organizational Change and Disruption</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3315</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>37605</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Larson, Barbara</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Developing Leaders for Global Sustainability</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3330</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>36961</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Managing Healthcare Organizations: Critical Challenges and New Approaches</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3340</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>32514</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hoff, Timothy</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>34</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Law and the Legal Process</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3360</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>36018</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Montgomery, Susan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Managing Human Capital</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>35000</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ladge, Jamie</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>35300</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Massoud, Robert</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Management Practices of Great Organizations</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4310</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>35001</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Human Resources and Workforce Analytics</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4410</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>35002</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Skills for Managerial Success</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>32515</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Skills for Managerial Success</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>32516</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>32188</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>32189</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>32190</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>32191</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>34904</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>34911</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>34912</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>34913</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Negotiations</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6214</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>37844</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Wertheim, Edward</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>32</v>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>32108</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>32109</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>32776</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>34002</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Innovation for Next-Generation Products and Systems</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6280</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>35383</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Meyer, Marc</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>19</v>
+      </c>
+      <c r="K25" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Business Law, Corporate Governance, and Intellectual Property Strategies</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6283</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>34832</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Shaughnessy, Dennis</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Business Law, Corporate Governance, and Intellectual Property Strategies</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6283</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>32110</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Shaughnessy, Dennis</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3014,6 +9219,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="73" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3533,13 +9751,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3596,6 +9827,996 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>37517</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wertheim, Edward</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Negotiating in Business</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3302</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>37518</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Law and the Legal Process</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3360</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>34756</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Montgomery, Susan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Managing Human Capital</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>34201</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ladge, Jamie</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>34373</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Massoud, Robert</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>The Management Practices of Great Organizations</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4310</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>34202</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Human Resources and Workforce Analytics</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4410</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>34203</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>24</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Skills for Managerial Success</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>32237</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Skills for Managerial Success</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>32238</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>31956</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>31957</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>31958</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>31959</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>34129</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>34136</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>20</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>34137</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Managing Ethics in the Workplace and Marketplace</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6213</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>34138</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nelson, Carl</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>31896</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sustainability and Leadership</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>31897</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Andre, Rae</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>32470</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sustainability and the Business Environment</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6226</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>33494</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Whitfield, Ronald</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Innovation for Next-Generation Products and Systems</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6280</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>34422</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Meyer, Marc</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>26</v>
+      </c>
+      <c r="K23" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
